--- a/sii/mpsi2/mpsi_quiz/C9-1.xlsx
+++ b/sii/mpsi2/mpsi_quiz/C9-1.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/site/mpsilamartin.github.io/sii/mpsi2/mpsi_quiz/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="30980" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>MPSI_C9-1</t>
   </si>
@@ -46,9 +59,6 @@
     <t>Quel est la fonction logique vérifiée par cette table de vérité ?</t>
   </si>
   <si>
-    <t>El abbadi</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -67,9 +77,6 @@
     <t>Ou exclusif</t>
   </si>
   <si>
-    <t>Justin</t>
-  </si>
-  <si>
     <t>Un robot antropomorphe, Un aspirateur</t>
   </si>
   <si>
@@ -85,45 +92,53 @@
     <t>l'initialisation du capteur hors énergie.</t>
   </si>
   <si>
-    <t>Mathis MOULIN</t>
-  </si>
-  <si>
-    <t>Mickael Victor</t>
-  </si>
-  <si>
     <t>L'un est analogique et l'autre numérique., l'initialisation du capteur hors énergie., Le nombre de pistes.</t>
   </si>
   <si>
-    <t>Pacoret</t>
-  </si>
-  <si>
     <t>L'un est analogique et l'autre numérique.</t>
   </si>
   <si>
-    <t>Ricci Loukas</t>
-  </si>
-  <si>
     <t>L'un est analogique et l'autre numérique., l'initialisation du capteur hors énergie., La résolution.</t>
   </si>
   <si>
-    <t>Tisserand Vivien</t>
-  </si>
-  <si>
-    <t>Yann-Ael Manceau</t>
-  </si>
-  <si>
     <t>Class Scoring</t>
+  </si>
+  <si>
+    <t>El-abbadi</t>
+  </si>
+  <si>
+    <t>RIGAL</t>
+  </si>
+  <si>
+    <t>MOULIN</t>
+  </si>
+  <si>
+    <t>THEOBALD</t>
+  </si>
+  <si>
+    <t>PIARD</t>
+  </si>
+  <si>
+    <t>Pacoret-berenger</t>
+  </si>
+  <si>
+    <t>Ricci-claude</t>
+  </si>
+  <si>
+    <t>Tisserand</t>
+  </si>
+  <si>
+    <t>Manceau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,9 +222,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -226,8 +238,11 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,13 +250,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,14 +299,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -313,14 +333,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -347,9 +368,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,415 +544,453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="10" width="30.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:11" ht="260" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="100" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="100" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
         <v>57</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>100</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>86</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>86</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
-        <v>86</v>
-      </c>
-      <c r="D12" s="4">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>71</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
-        <v>100</v>
-      </c>
-      <c r="D16" s="4">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="D18" s="8">
         <v>5.666666666666667</v>
       </c>
-      <c r="E17" s="8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="E18" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G18" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="8">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="H18" s="7">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="K18" s="7">
         <v>1</v>
       </c>
     </row>
